--- a/Yogesh V/Yogesh V.xlsx
+++ b/Yogesh V/Yogesh V.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="185">
   <si>
     <t>Version</t>
   </si>
@@ -69,7 +69,7 @@
     <t>Task type</t>
   </si>
   <si>
-    <t>AssigneeName</t>
+    <t>OwnerName</t>
   </si>
   <si>
     <t>EstimationTime(hrs-int)</t>
@@ -322,10 +322,13 @@
     <t xml:space="preserve"> Please ensure the Start Date (m-d-y) and Due Date (m-d-y) are in M-D-Y format, and that the Due Date is later than the Start Date</t>
   </si>
   <si>
+    <t>Sample Format</t>
+  </si>
+  <si>
     <t>ProjectNames</t>
   </si>
   <si>
-    <t>AssigneNames</t>
+    <t>OwnerNames</t>
   </si>
   <si>
     <t xml:space="preserve">Chandrayan 3 </t>
@@ -714,7 +717,7 @@
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,13 +756,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9.65"/>
@@ -935,7 +931,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -958,12 +954,6 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4B084"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1292,52 +1282,55 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1352,73 +1345,70 @@
     <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1440,8 +1430,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1450,7 +1441,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1520,6 +1512,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="6981825"/>
+          <a:ext cx="17049750" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1844,8 +1883,8 @@
   <sheetPr/>
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1871,44 +1910,44 @@
     <col min="25" max="25" width="41.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" spans="1:25">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="14" customFormat="1" spans="1:25">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="16" t="s">
         <v>15</v>
       </c>
       <c r="N1"/>
@@ -1923,7 +1962,6 @@
     <row r="2" customFormat="1" spans="8:20">
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
       <c r="K2" s="18"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -2066,18 +2104,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:G30"/>
+  <dimension ref="B3:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="71.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="70.7142857142857" customWidth="1"/>
     <col min="5" max="5" width="25.5714285714286" customWidth="1"/>
-    <col min="6" max="6" width="65.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="60.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="57.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="35.5714285714286" customWidth="1"/>
+    <col min="12" max="12" width="14.2857142857143" customWidth="1"/>
+    <col min="13" max="13" width="13.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="1" ht="23.25" spans="4:4">
@@ -2085,11 +2125,13 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4" customFormat="1"/>
     <row r="5" customFormat="1" ht="18.75" spans="5:5">
       <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="6" customFormat="1"/>
     <row r="7" customFormat="1" ht="15.75" spans="4:7">
       <c r="D7" s="5"/>
       <c r="E7" s="6" t="s">
@@ -2102,7 +2144,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="15.75" spans="4:7">
+    <row r="8" customFormat="1" ht="30" spans="4:7">
       <c r="D8" s="5"/>
       <c r="E8" s="7" t="s">
         <v>3</v>
@@ -2159,7 +2201,7 @@
       </c>
     </row>
     <row r="13" customFormat="1" spans="5:7">
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -2176,7 +2218,7 @@
       <c r="F14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2198,7 +2240,7 @@
       <c r="F16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>20</v>
       </c>
     </row>
@@ -2257,6 +2299,9 @@
         <v>50</v>
       </c>
     </row>
+    <row r="22" customFormat="1"/>
+    <row r="23" customFormat="1"/>
+    <row r="24" customFormat="1"/>
     <row r="25" customFormat="1" ht="18.75" spans="3:3">
       <c r="C25" s="4" t="s">
         <v>51</v>
@@ -2266,16 +2311,16 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="13"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" customFormat="1" ht="15.75" spans="2:3">
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2295,12 +2340,20 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" customFormat="1" spans="2:3">
       <c r="B30">
         <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1"/>
+    <row r="32" customFormat="1"/>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1" ht="18.75" spans="2:2">
+      <c r="B34" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2309,6 +2362,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2317,8 +2371,8 @@
   <sheetPr/>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2334,25 +2388,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2360,485 +2414,485 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:7">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:7">
       <c r="B7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:7">
       <c r="B8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:7">
       <c r="B9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:7">
       <c r="B10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:7">
       <c r="B11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:7">
       <c r="B12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="2:6">
       <c r="B13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="2:6">
       <c r="B14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:6">
       <c r="B15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="2:6">
       <c r="B16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="2:6">
       <c r="B17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="2:6">
       <c r="B18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="2:5">
       <c r="B19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="2:5">
       <c r="B20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="2:5">
       <c r="B21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="2:5">
       <c r="B22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="2:5">
       <c r="B23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="2:5">
       <c r="B24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="2:5">
       <c r="B25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="2:5">
       <c r="B26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="2:5">
       <c r="B27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="2:5">
       <c r="B28" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="2:5">
       <c r="B29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="2:5">
       <c r="B30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="2:5">
       <c r="B31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="2:5">
       <c r="B32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="2:5">
       <c r="B33" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E33" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
